--- a/tests/tests_data/user_input/company_small.xlsx
+++ b/tests/tests_data/user_input/company_small.xlsx
@@ -1,21 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Loan Size</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Eneva SA</t>
+  </si>
+  <si>
+    <t>Alupar</t>
+  </si>
+  <si>
+    <t>AGRItest</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,10 +65,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +84,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -52,17 +103,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -71,10 +151,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -112,69 +192,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,54 +280,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -255,7 +336,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -264,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -273,7 +354,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -281,10 +362,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -313,7 +394,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -326,13 +407,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -350,108 +430,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Debt</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Net Profit Margin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Loan Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LGD</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eneva SA</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
         <v>1273725085.88718</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>4100000000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>10000000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>0.4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alupar</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>710097372.4050649</v>
-      </c>
-      <c r="C3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>710097372.405065</v>
+      </c>
+      <c r="C3" s="6">
         <v>1500000000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>10000000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>710097372.405065</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1500000000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="6">
         <v>5</v>
       </c>
     </row>

--- a/tests/tests_data/user_input/company_small.xlsx
+++ b/tests/tests_data/user_input/company_small.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2diigermany/2° Investing Dropbox/Antonio Buller/PortCheck_v2/10_Projects/GIZ Brazil/Tool/demo_inputs/user_input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ED57E-6859-254B-8CDF-46F68A7E7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="6740" yWindow="-17100" windowWidth="25040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Company</t>
   </si>
@@ -47,14 +53,16 @@
   </si>
   <si>
     <t>AGRItest</t>
+  </si>
+  <si>
+    <t>AGRItest2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,15 +73,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,14 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,58 +99,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -187,79 +162,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -280,53 +255,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -336,7 +312,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -345,7 +321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,7 +330,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,10 +338,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -394,7 +370,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -407,12 +383,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -430,127 +407,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>1273725085.88718</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2">
+        <v>1273725085.8871801</v>
+      </c>
+      <c r="C2">
         <v>4100000000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>10000000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>0.4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
-        <v>710097372.405065</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3">
+        <v>710097372.40506494</v>
+      </c>
+      <c r="C3">
         <v>1500000000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>10000000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>0.4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>710097372.405065</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4">
+        <v>710097372.40506494</v>
+      </c>
+      <c r="C4">
         <v>1500000000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>10000000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>0.4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>710097372.40506494</v>
+      </c>
+      <c r="C5">
+        <v>1500000000</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
     </row>

--- a/tests/tests_data/user_input/company_small.xlsx
+++ b/tests/tests_data/user_input/company_small.xlsx
@@ -1,21 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2diigermany/2° Investing Dropbox/Antonio Buller/PortCheck_v2/10_Projects/GIZ Brazil/Tool/demo_inputs/user_input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ED57E-6859-254B-8CDF-46F68A7E7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6740" yWindow="-17100" windowWidth="25040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Loan Size</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Eneva SA</t>
+  </si>
+  <si>
+    <t>Alupar</t>
+  </si>
+  <si>
+    <t>AGRItest</t>
+  </si>
+  <si>
+    <t>AGRItest2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +106,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,63 +407,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Debt</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Net Profit Margin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Loan Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LGD</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eneva SA</t>
-        </is>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1273725085.88718</v>
+        <v>1273725085.8871801</v>
       </c>
       <c r="C2">
         <v>4100000000</v>
@@ -427,14 +468,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alupar</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>710097372.4050649</v>
+        <v>710097372.40506494</v>
       </c>
       <c r="C3">
         <v>1500000000</v>
@@ -452,6 +491,58 @@
         <v>0.4</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>710097372.40506494</v>
+      </c>
+      <c r="C4">
+        <v>1500000000</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>10000000</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>710097372.40506494</v>
+      </c>
+      <c r="C5">
+        <v>1500000000</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
